--- a/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết Kế Xử Lý/Statistics/Statistics.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết Kế Xử Lý/Statistics/Statistics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f7d33519bf48a6/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\To-Do-App\ToDoApp-Doc\Document\Diagram\Thiết Kế Phần Mềm\Thiết Kế Xử Lý\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{4BA9A79A-7E36-4B0F-AAE6-49DB400EBA2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FFBB5DEB-BF3A-4668-BE18-8E87F05DB45F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A50CF3-63CA-4605-BC53-76E7F8B2B233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3EAA4128-7D56-45D4-BACB-BE7795653E61}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="195">
   <si>
     <t>Lưu giao diện xem</t>
   </si>
@@ -47,13 +47,6 @@
 2 = Task có ngày hết hạn</t>
   </si>
   <si>
-    <t>Chỉ có thể là 0,1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task_Status
-</t>
-  </si>
-  <si>
     <t>viewTag</t>
   </si>
   <si>
@@ -63,54 +56,16 @@
     <t>Date/Time</t>
   </si>
   <si>
-    <t>usingApp_Time</t>
-  </si>
-  <si>
     <t>viewTask</t>
-  </si>
-  <si>
-    <t>number_Of_Pomodoro</t>
-  </si>
-  <si>
-    <t>Danh sách Pomodoro của người dùng đang hiển thị.</t>
   </si>
   <si>
     <t>List&lt;Pomodoro&gt;</t>
   </si>
   <si>
-    <t>pomodoro_Statistics_List</t>
-  </si>
-  <si>
-    <t>number_Of_Achievement</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Ngày thống kê Task.
- - Ngày thống kê Tag.
- - Ngày thống kê Achievement.
- - Ngày thống kê Pomodoro.
-- Ngày thống kê thời lượng sử dụng app.
-</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Danh sách Achievement của người dùng đang hiển thị.</t>
-  </si>
-  <si>
     <t>List&lt;Achievement&gt;</t>
   </si>
   <si>
-    <t>achievement_Statistics_List</t>
-  </si>
-  <si>
-    <t>number_Of_Tag</t>
-  </si>
-  <si>
     <t>Thời gian sử dụng app</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Chế độ xem dạng List hoặc Detail</t>
@@ -119,28 +74,13 @@
     <t>Vét cạn</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>int viewUsingApp</t>
   </si>
   <si>
     <t>viewUsingApp()</t>
   </si>
   <si>
-    <t>Danh sách Tag của người dùng đang hiển thị.</t>
-  </si>
-  <si>
     <t>List&lt;Tag&gt;</t>
-  </si>
-  <si>
-    <t>tag_Statistics_List</t>
-  </si>
-  <si>
-    <t>number_Of_Task</t>
-  </si>
-  <si>
-    <t>HashMap</t>
   </si>
   <si>
     <t>int viewPomodoro</t>
@@ -149,34 +89,16 @@
     <t>viewPomodoro()</t>
   </si>
   <si>
-    <t>Định nghĩa hành động hiển thị danh sách thời gian sử dụng app.</t>
-  </si>
-  <si>
     <t>"liststatisticsUsingApp"</t>
-  </si>
-  <si>
-    <t>String</t>
   </si>
   <si>
     <t>LIST_STATISTICS_USING_APP</t>
   </si>
   <si>
-    <t>Danh sách Task của người dùng đang hiển thị.</t>
-  </si>
-  <si>
     <t>List&lt;Task&gt;</t>
   </si>
   <si>
-    <t>task_Statistics_List</t>
-  </si>
-  <si>
     <t>List&lt;UsingApp&gt;</t>
-  </si>
-  <si>
-    <t>usingApp_Statistics_List</t>
-  </si>
-  <si>
-    <t>Set</t>
   </si>
   <si>
     <t>int viewAchievement</t>
@@ -185,22 +107,13 @@
     <t>viewAchievement()</t>
   </si>
   <si>
-    <t>Định nghĩa hành động hiển thị danh sách Pomodoro.</t>
-  </si>
-  <si>
     <t>"liststatisticsPomodoro"</t>
   </si>
   <si>
     <t>LIST_STATISTICS_POMODORO</t>
   </si>
   <si>
-    <t>Tỉ lệ thời gian sử dụng.</t>
-  </si>
-  <si>
     <t>double</t>
-  </si>
-  <si>
-    <t>usingApp_PerTotal</t>
   </si>
   <si>
     <t>int viewTag</t>
@@ -209,19 +122,10 @@
     <t>viewTag()</t>
   </si>
   <si>
-    <t>Định nghĩa hành động hiển thị danh sách Achievement.</t>
-  </si>
-  <si>
     <t>"liststatisticsAchievement"</t>
   </si>
   <si>
     <t>LIST_STATISTICS_ACHIEVEMENT</t>
-  </si>
-  <si>
-    <t>Tỉ lệ Achievement đã hoàn thành so với tổng Achievement.</t>
-  </si>
-  <si>
-    <t>achievement_Statistics_PerTotal</t>
   </si>
   <si>
     <t>int viewTask</t>
@@ -230,28 +134,10 @@
     <t>viewTask()</t>
   </si>
   <si>
-    <t>Định nghĩa hành động hiển thị danh sách Tag.</t>
-  </si>
-  <si>
     <t>"liststatisticsTag"</t>
   </si>
   <si>
     <t>LIST_STATISTICS_TAG</t>
-  </si>
-  <si>
-    <t>Tỉ lệ Tag đã sử dụng so với tổng Tag.</t>
-  </si>
-  <si>
-    <t>tag_Statistics_PerTotal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-- Xác nhận các tác động như xem thống kê Task.
-- Xác nhận các tác động như xem thống kê Tag.
-- Xác nhận các tác động như xem thống kê Achievement.
-- Xác nhận các tác động như xem thống kê Pomodoro.
-- Xác nhận các tác động như xem thống kê thời gian sử dụng app.
-- Tỉ lệ hoàn thành</t>
   </si>
   <si>
     <t>boolean</t>
@@ -260,16 +146,7 @@
     <t>Xác nhận thời gian đã sử dụng</t>
   </si>
   <si>
-    <t>Là thời gian mà người dùng app</t>
-  </si>
-  <si>
-    <t>String usingApp_Id</t>
-  </si>
-  <si>
     <t>isUsingApp()</t>
-  </si>
-  <si>
-    <t>Định nghĩa hành động hiển thị danh sách Task.</t>
   </si>
   <si>
     <t>"liststatisticsTask"</t>
@@ -278,34 +155,13 @@
     <t>LIST_STATISTICS_TASK</t>
   </si>
   <si>
-    <t>Tỉ lệ Task đã hoàn thành so với tổng Task.</t>
-  </si>
-  <si>
-    <t>task_Statistics_PerTotal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Danh sách Task người dùng đã đạt được.
-- Danh sách Tag người dùng đã sử dụng.
-- Danh sách Achievement người dùng đã đạt được.</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
     <t>Xác nhận Pomodoro đã sử dụng</t>
   </si>
   <si>
     <t>Là Pomodo mà người dùng đã sử dụng</t>
   </si>
   <si>
-    <t>String pomodoro_Id</t>
-  </si>
-  <si>
     <t>isPomodoro()</t>
-  </si>
-  <si>
-    <t>Định nghĩa hành động xem thống kế thồi gian sử dụng app.</t>
   </si>
   <si>
     <t>"viewstatisticsUsingApp"</t>
@@ -317,40 +173,13 @@
     <t>VIEW_STATISTICS_USING_APP</t>
   </si>
   <si>
-    <t>Thời lượng sử dụng app.</t>
-  </si>
-  <si>
-    <t>1 = Đã xem.
-0 = Chưa xem.</t>
-  </si>
-  <si>
-    <t>Chỉ có thể là 0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_UsingApp_Type
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Tỉ lệ các Task đã hoàn thành so với tất cả Task.
-- Tỉ lệ các Tag đã sử dụng so với tất cả Tag.
-- Tỉ lệ sử dụng Pomodoro.
-- Tỉ lệ các Achievement đã hoàn thành so với tất cả Achievement.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Xác nhận Achievement thuộc tài khoản người dùng </t>
   </si>
   <si>
     <t>Là Achievement trong tài khoản người dùng</t>
   </si>
   <si>
-    <t>String achievement_Id</t>
-  </si>
-  <si>
     <t>isAchievement()</t>
-  </si>
-  <si>
-    <t>Định nghĩa hành động xem thống kế Pomodoro.</t>
   </si>
   <si>
     <t>"viewstatisticsPomodoro"</t>
@@ -359,44 +188,13 @@
     <t>VIEW_STATISTICS_POMODORO</t>
   </si>
   <si>
-    <t>Số lượng Pomodoro đã sử dụng.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_Pomodoro_Type
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Mã Task. 
-- Tên Task. 
-- Nội dung của Task.
-- Ghi chú của Task.
- - Mã Tag. 
-- Tên Tag. 
-- Nội dung của Tag.
-- Ghi chú của Tag. 
-- Mã Achievement. 
-- Tên Achievement. 
-- Nội dung của Achievement.
-- Ghi chú của Achievement.
-- Nội dung của Pomodoro.
-- Ghi chú của Pomodoro.
-- Thông tin tìm kiếm
-- Tiêu chí sắp xếp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Xác nhận Tag thuộc tài khoản người dùng </t>
   </si>
   <si>
     <t>Là Tag trong tài khoản người dùng</t>
   </si>
   <si>
-    <t>String tag_Id</t>
-  </si>
-  <si>
     <t>isTag()</t>
-  </si>
-  <si>
-    <t>Định nghĩa hành động xem thống kế Achievement.</t>
   </si>
   <si>
     <t>"viewstatisticAchievement"</t>
@@ -405,26 +203,13 @@
     <t>VIEW_STATISTICS_ACHIEVEMENT</t>
   </si>
   <si>
-    <t>Số lượng Achievement đã hoàn thành.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_Achievement_Type
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Xác nhận Task thuộc tài khoản người dùng </t>
   </si>
   <si>
     <t>Là Task trong tài khoản người dùng</t>
   </si>
   <si>
-    <t>String task_Id</t>
-  </si>
-  <si>
     <t>isTask()</t>
-  </si>
-  <si>
-    <t>Định nghĩa hành động xem thống kế Tag.</t>
   </si>
   <si>
     <t>"viewstatisticsTag"</t>
@@ -433,42 +218,13 @@
     <t>VIEW_STATISTICS_TAG</t>
   </si>
   <si>
-    <t>Số lượng Tag đã sử dụng.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_Tag_Type
-</t>
-  </si>
-  <si>
-    <t>Lấy giá trị đại diện cho trạng thái thống kê Task sẽ hiển thị.</t>
-  </si>
-  <si>
-    <t>Một giá trị số nguyên trong khoảng [0;2]</t>
-  </si>
-  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>Định nghĩa hành động xem thống kế Task.</t>
   </si>
   <si>
     <t>"viewstatisticsTask"</t>
   </si>
   <si>
     <t>VIEW_STATISTICS_TASK</t>
-  </si>
-  <si>
-    <t>Số lượng Task đã hoàn thành.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_Task_Type
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Số lượng Task trong CSDL.
- - Số lượng Tag trong CSDL. 
-- Số lượng Achievement trong CSDL.
-- Lựa chọn xem của người dùng.</t>
   </si>
   <si>
     <t>Ghi Chú</t>
@@ -525,26 +281,381 @@
     <t>DANH SÁCH CÁC BIẾN</t>
   </si>
   <si>
-    <t>DANH SÁCH CÁC THUỘC TÍNH KIỂU DỮ LIỆU X</t>
-  </si>
-  <si>
     <t>DANH SÁCH CÁC KIỂU DỮ LIỆU XỬ LÝ</t>
   </si>
   <si>
     <t>setDefaultTaskType()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+- Xác nhận các tác động như xem thống kê Task.
+- Xác nhận các tác động như xem thống kê Tag.
+- Xác nhận các tác động như xem thống kê Achievement.
+- Xác nhận các tác động như xem thống kê Pomodoro.
+- Xác nhận các tác động như xem thống kê thời gian sử dụng app.
+</t>
+  </si>
+  <si>
+    <t>xuatDanhSachTask()</t>
+  </si>
+  <si>
+    <t>xuatDanhSachAchievement()</t>
+  </si>
+  <si>
+    <t>xuatDanhSachPomodoro()</t>
+  </si>
+  <si>
+    <t>xuatDanhSachUsingApp()</t>
+  </si>
+  <si>
+    <t>xuatDanhSachTag()</t>
+  </si>
+  <si>
+    <t>xuatDanhSachCompletedTask()</t>
+  </si>
+  <si>
+    <t>xuatDanhSachDeadlineTask()</t>
+  </si>
+  <si>
+    <t>Chế độ xem đã chọn</t>
+  </si>
+  <si>
+    <t>Danh sách Achievement</t>
+  </si>
+  <si>
+    <t>Danh sách Pomodoro</t>
+  </si>
+  <si>
+    <t>Danh sách Tag</t>
+  </si>
+  <si>
+    <t>Danh sách thời gian sử dụng app</t>
+  </si>
+  <si>
+    <t>Danh sách completed task</t>
+  </si>
+  <si>
+    <t>Danh sách deadline task</t>
+  </si>
+  <si>
+    <t>Danh sách tất cả Task</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách thống kê tất cả Task</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách thống kê Achievement</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách thống kê Pomodoro</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách thống kê Tag</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách thống kê thồi gian sử dụng app</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách thống kê Completed Task</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách thống kê Deadline Task</t>
+  </si>
+  <si>
+    <t>taskStatisticsList</t>
+  </si>
+  <si>
+    <t>tagStatisticsList</t>
+  </si>
+  <si>
+    <t>achievementStatisticsList</t>
+  </si>
+  <si>
+    <t>pomodoroStatisticsList</t>
+  </si>
+  <si>
+    <t>usingAppStatisticsList</t>
+  </si>
+  <si>
+    <t>numberOfTask</t>
+  </si>
+  <si>
+    <t>numberOfAchievement</t>
+  </si>
+  <si>
+    <t>numberOfPomodoro</t>
+  </si>
+  <si>
+    <t>usingAppTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taskStatus
+</t>
+  </si>
+  <si>
+    <t>numberOfTag</t>
+  </si>
+  <si>
+    <t>taskStatisticsPerTotal</t>
+  </si>
+  <si>
+    <t>tagStatisticsPerTotal</t>
+  </si>
+  <si>
+    <t>achievementStatisticsPerTotal</t>
+  </si>
+  <si>
+    <t>usingAppPerTotal</t>
+  </si>
+  <si>
+    <t>noteTask</t>
+  </si>
+  <si>
+    <t>noteTag</t>
+  </si>
+  <si>
+    <t>noteAchievement</t>
+  </si>
+  <si>
+    <t>notePomodoro</t>
+  </si>
+  <si>
+    <t>Mã Task</t>
+  </si>
+  <si>
+    <t>Mã tag</t>
+  </si>
+  <si>
+    <t>Mã Achievement</t>
+  </si>
+  <si>
+    <t>Ghi chú Task</t>
+  </si>
+  <si>
+    <t>Ghi chú Tag</t>
+  </si>
+  <si>
+    <t>Ghi chú Achievement</t>
+  </si>
+  <si>
+    <t>Ghi chú về Pomodoro</t>
+  </si>
+  <si>
+    <t>DANH SÁCH CÁC THUỘC TÍNH KIỂU DỮ LIỆU LIST</t>
+  </si>
+  <si>
+    <t>DANH SÁCH CÁC THUỘC TÍNH KIỂU DỮ LIỆU INT</t>
+  </si>
+  <si>
+    <t>string taskName</t>
+  </si>
+  <si>
+    <t>string tagName</t>
+  </si>
+  <si>
+    <t>string achievementName</t>
+  </si>
+  <si>
+    <t>Là thời gian mà người dùng dùng app</t>
+  </si>
+  <si>
+    <t>int taskId</t>
+  </si>
+  <si>
+    <t>int achievementId</t>
+  </si>
+  <si>
+    <t>int pomodoroId</t>
+  </si>
+  <si>
+    <t>int usingAppId</t>
+  </si>
+  <si>
+    <t>int completedTaskId</t>
+  </si>
+  <si>
+    <t>int deadlineTaskId</t>
+  </si>
+  <si>
+    <t>taskId</t>
+  </si>
+  <si>
+    <t>achievementId</t>
+  </si>
+  <si>
+    <t>tagId</t>
+  </si>
+  <si>
+    <t>Chỉ có thể là 0,1</t>
+  </si>
+  <si>
+    <t>DANH SÁCH CÁC THUỘC TÍNH KIỂU DỮ LIỆU DATE/TIME</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>hashmap</t>
+  </si>
+  <si>
+    <t>string pomodoroName</t>
+  </si>
+  <si>
+    <t>string usingAppName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Số lượng Task trong CSDL
+ - Số lượng Tag trong CSDL 
+- Số lượng Achievement trong CSDL
+- Lựa chọn xem của người dùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Mã Task
+- Tên Task 
+- Nội dung của Task
+- Ghi chú của Task
+ - Mã Tag
+- Tên Tag 
+- Nội dung của Tag
+- Ghi chú của Tag 
+- Mã Achievement 
+- Tên Achievement 
+- Nội dung của Achievement
+- Ghi chú của Achievement
+- Nội dung của Pomodoro
+- Ghi chú của Pomodoro
+- Thông tin tìm kiếm
+- Tiêu chí sắp xếp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Tỉ lệ các Task đã hoàn thành so với tất cả Task
+- Tỉ lệ các Tag đã sử dụng so với tất cả Tag
+- Tỉ lệ sử dụng Pomodoro
+- Tỉ lệ các Achievement đã hoàn thành so với tất cả Achievement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Danh sách Task người dùng đã đạt được
+- Danh sách Tag người dùng đã sử dụng
+- Danh sách Achievement người dùng đã đạt được</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Ngày thống kê Task
+ - Ngày thống kê Tag
+ - Ngày thống kê Achievement
+ - Ngày thống kê Pomodoro
+- Ngày thống kê thời lượng sử dụng app
+</t>
+  </si>
+  <si>
+    <t>Số lượng Task đã hoàn thành</t>
+  </si>
+  <si>
+    <t>Số lượng Tag đã sử dụng</t>
+  </si>
+  <si>
+    <t>Số lượng Achievement đã hoàn thành</t>
+  </si>
+  <si>
+    <t>Số lượng Pomodoro đã sử dụng</t>
+  </si>
+  <si>
+    <t>Thời lượng sử dụng app</t>
+  </si>
+  <si>
+    <t>Tỉ lệ Task đã hoàn thành so với tổng Task</t>
+  </si>
+  <si>
+    <t>Tỉ lệ Tag đã sử dụng so với tổng Tag</t>
+  </si>
+  <si>
+    <t>Tỉ lệ Achievement đã hoàn thành so với tổng Achievement</t>
+  </si>
+  <si>
+    <t>Tỉ lệ thời gian sử dụng</t>
+  </si>
+  <si>
+    <t>Danh sách Task của người dùng đang hiển thị</t>
+  </si>
+  <si>
+    <t>Danh sách Tag của người dùng đang hiển thị</t>
+  </si>
+  <si>
+    <t>Danh sách Achievement của người dùng đang hiển thị</t>
+  </si>
+  <si>
+    <t>Danh sách Pomodoro của người dùng đang hiển thị</t>
+  </si>
+  <si>
+    <t>Định nghĩa hành động xem thống kế Task</t>
+  </si>
+  <si>
+    <t>Định nghĩa hành động xem thống kế Tag</t>
+  </si>
+  <si>
+    <t>Định nghĩa hành động xem thống kế Achievement</t>
+  </si>
+  <si>
+    <t>Định nghĩa hành động xem thống kế Pomodoro</t>
+  </si>
+  <si>
+    <t>Định nghĩa hành động xem thống kế thồi gian sử dụng app</t>
+  </si>
+  <si>
+    <t>Định nghĩa hành động hiển thị danh sách Task</t>
+  </si>
+  <si>
+    <t>Định nghĩa hành động hiển thị danh sách Tag</t>
+  </si>
+  <si>
+    <t>Định nghĩa hành động hiển thị danh sách Achievement</t>
+  </si>
+  <si>
+    <t>Định nghĩa hành động hiển thị danh sách Pomodoro</t>
+  </si>
+  <si>
+    <t>Định nghĩa hành động hiển thị danh sách thời gian sử dụng app</t>
+  </si>
+  <si>
+    <t>Lấy giá trị đại diện cho trạng thái thống kê Task sẽ hiển thị</t>
+  </si>
+  <si>
+    <t>int tagId</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>DANH SÁCH CÁC THUỘC TÍNH KIỂU DỮ LIỆU STRING</t>
+  </si>
+  <si>
+    <t>TKI00001</t>
+  </si>
+  <si>
+    <t>TGI00001</t>
+  </si>
+  <si>
+    <t>AC00001</t>
+  </si>
+  <si>
+    <t>DANH SÁCH CÁC THUỘC TÍNH KIỂU DỮ LIỆU BOOLEAN</t>
+  </si>
+  <si>
+    <t>Một giá trị số nguyên trong khoảng [0;1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -571,15 +682,46 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -848,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,11 +998,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -868,79 +1016,85 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -949,43 +1103,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -997,19 +1166,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1331,8 +1509,8 @@
   </sheetPr>
   <dimension ref="A1:AF1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView tabSelected="1" topLeftCell="W16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1340,11 +1518,11 @@
     <col min="1" max="2" width="14.44140625" style="1"/>
     <col min="3" max="3" width="42" style="1" customWidth="1"/>
     <col min="4" max="6" width="14.44140625" style="1"/>
-    <col min="7" max="7" width="21.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" style="1" customWidth="1"/>
     <col min="12" max="13" width="14.44140625" style="1"/>
     <col min="14" max="14" width="26.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="17.6640625" style="1" customWidth="1"/>
@@ -1356,960 +1534,924 @@
     <col min="22" max="22" width="22.44140625" style="1" customWidth="1"/>
     <col min="23" max="23" width="56" style="1" customWidth="1"/>
     <col min="24" max="26" width="14.44140625" style="1"/>
-    <col min="27" max="27" width="21" style="1" customWidth="1"/>
+    <col min="27" max="27" width="30.88671875" style="1" customWidth="1"/>
     <col min="28" max="28" width="27.6640625" style="1" customWidth="1"/>
     <col min="29" max="29" width="17" style="2" customWidth="1"/>
     <col min="30" max="30" width="14.44140625" style="1"/>
-    <col min="31" max="31" width="14.44140625" style="2"/>
+    <col min="31" max="31" width="20" style="2" customWidth="1"/>
     <col min="32" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="A1" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="F1" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
+      <c r="M1" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
+      <c r="S1" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
       <c r="Y1" s="3"/>
-      <c r="Z1" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="36"/>
+      <c r="Z1" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="45"/>
     </row>
     <row r="2" spans="1:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>133</v>
+      <c r="A2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>133</v>
+      <c r="F2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>133</v>
+      <c r="M2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="R2" s="3"/>
-      <c r="S2" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="T2" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="U2" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="V2" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="W2" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="X2" s="31" t="s">
-        <v>133</v>
+      <c r="S2" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA2" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB2" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC2" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD2" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE2" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF2" s="32" t="s">
-        <v>133</v>
+      <c r="Z2" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF2" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+      <c r="A3" s="47">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="47"/>
+      <c r="C3" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="56"/>
       <c r="E3" s="5"/>
       <c r="F3" s="12">
         <v>1</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>131</v>
+      <c r="G3" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>92</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="12"/>
       <c r="L3" s="3"/>
       <c r="M3" s="12">
         <v>1</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q3" s="19"/>
+      <c r="P3" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3" s="21"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="16">
+      <c r="S3" s="22">
         <v>1</v>
       </c>
-      <c r="T3" s="28" t="s">
-        <v>129</v>
+      <c r="T3" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="X3" s="31"/>
+        <v>175</v>
+      </c>
+      <c r="X3" s="33"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="16">
+      <c r="Z3" s="22">
         <v>1</v>
       </c>
-      <c r="AA3" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB3" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC3" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF3" s="16"/>
+      <c r="AA3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE3" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF3" s="22"/>
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="48"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="6"/>
       <c r="F4" s="12">
         <v>2</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>123</v>
+      <c r="G4" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>92</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="12"/>
       <c r="L4" s="3"/>
       <c r="M4" s="12">
         <v>2</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q4" s="16"/>
+      <c r="P4" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q4" s="22"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="16">
+      <c r="S4" s="22">
         <v>2</v>
       </c>
-      <c r="T4" s="28" t="s">
-        <v>121</v>
+      <c r="T4" s="32" t="s">
+        <v>62</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="X4" s="12"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="16">
+      <c r="Z4" s="22">
         <v>2</v>
       </c>
-      <c r="AA4" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB4" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC4" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE4" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF4" s="14"/>
+      <c r="AA4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB4" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" s="19"/>
     </row>
     <row r="5" spans="1:32" ht="51.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="49"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="6"/>
       <c r="F5" s="12">
         <v>3</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>114</v>
+      <c r="G5" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>92</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="12"/>
       <c r="L5" s="3"/>
       <c r="M5" s="12">
         <v>3</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q5" s="16"/>
+      <c r="P5" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q5" s="22"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="16">
+      <c r="S5" s="22">
         <v>3</v>
       </c>
-      <c r="T5" s="28" t="s">
-        <v>112</v>
+      <c r="T5" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="X5" s="12"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="16">
+      <c r="Z5" s="22">
         <v>3</v>
       </c>
-      <c r="AA5" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB5" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC5" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE5" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF5" s="14"/>
+      <c r="AA5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB5" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF5" s="19"/>
     </row>
     <row r="6" spans="1:32" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>105</v>
+        <v>46</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="6"/>
       <c r="F6" s="12">
         <v>4</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>104</v>
+      <c r="G6" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>92</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="12"/>
       <c r="L6" s="3"/>
       <c r="M6" s="12">
         <v>4</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="P6" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q6" s="21"/>
+      <c r="P6" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q6" s="15"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="16">
+      <c r="S6" s="22">
         <v>4</v>
       </c>
-      <c r="T6" s="28" t="s">
-        <v>102</v>
+      <c r="T6" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="X6" s="12"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="16">
+      <c r="Z6" s="22">
         <v>4</v>
       </c>
-      <c r="AA6" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB6" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC6" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE6" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF6" s="14"/>
+      <c r="AA6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF6" s="19"/>
     </row>
     <row r="7" spans="1:32" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>95</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="6"/>
       <c r="F7" s="12">
         <v>5</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>94</v>
+      <c r="G7" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>92</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="12"/>
       <c r="L7" s="3"/>
       <c r="M7" s="12">
         <v>5</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>91</v>
+        <v>8</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="16">
+      <c r="S7" s="22">
         <v>5</v>
       </c>
-      <c r="T7" s="28" t="s">
-        <v>90</v>
+      <c r="T7" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="X7" s="12"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="16">
+      <c r="Z7" s="22">
         <v>5</v>
       </c>
-      <c r="AA7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB7" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE7" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF7" s="14"/>
+      <c r="AA7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB7" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF7" s="19"/>
     </row>
     <row r="8" spans="1:32" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>81</v>
+        <v>152</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="12">
-        <v>6</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="12"/>
       <c r="L8" s="3"/>
       <c r="M8" s="12">
         <v>6</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>79</v>
+        <v>28</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="Q8" s="12"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="16">
+      <c r="S8" s="22">
         <v>6</v>
       </c>
-      <c r="T8" s="28" t="s">
-        <v>78</v>
+      <c r="T8" s="32" t="s">
+        <v>41</v>
       </c>
       <c r="U8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="V8" s="27" t="s">
-        <v>77</v>
-      </c>
       <c r="W8" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="X8" s="22"/>
+        <v>180</v>
+      </c>
+      <c r="X8" s="25"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="16">
+      <c r="Z8" s="22">
         <v>6</v>
       </c>
-      <c r="AA8" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB8" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC8" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE8" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF8" s="14"/>
+      <c r="AA8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC8" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF8" s="19"/>
     </row>
     <row r="9" spans="1:32" ht="48.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="A9" s="47">
         <v>5</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="38"/>
+      <c r="B9" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="47"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="12">
-        <v>7</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="12"/>
+      <c r="F9" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="3"/>
       <c r="M9" s="12">
         <v>7</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>68</v>
+        <v>28</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="Q9" s="12"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="16">
+      <c r="S9" s="22">
         <v>7</v>
       </c>
-      <c r="T9" s="28" t="s">
-        <v>67</v>
+      <c r="T9" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="V9" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="22">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC9" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF9" s="23"/>
+    </row>
+    <row r="10" spans="1:32" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="W9" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="16">
-        <v>7</v>
-      </c>
-      <c r="AA9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF9" s="25"/>
-    </row>
-    <row r="10" spans="1:32" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="12">
-        <v>8</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="12"/>
       <c r="L10" s="3"/>
       <c r="M10" s="12">
         <v>8</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>61</v>
+        <v>28</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="Q10" s="12"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="16">
+      <c r="S10" s="22">
         <v>8</v>
       </c>
-      <c r="T10" s="28" t="s">
-        <v>60</v>
+      <c r="T10" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="V10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="W10" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="X10" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="X10" s="27"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="16">
+      <c r="Z10" s="22">
         <v>8</v>
       </c>
-      <c r="AA10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB10" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF10" s="25"/>
+      <c r="AA10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC10" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF10" s="23"/>
     </row>
     <row r="11" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="40"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="12">
-        <v>9</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="12"/>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19"/>
       <c r="L11" s="3"/>
       <c r="M11" s="12">
         <v>9</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q11" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q11" s="21"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="16">
+      <c r="S11" s="22">
         <v>9</v>
       </c>
-      <c r="T11" s="28" t="s">
-        <v>52</v>
+      <c r="T11" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="V11" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="W11" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="X11" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="V11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="X11" s="27"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="16">
+      <c r="Z11" s="22">
         <v>9</v>
       </c>
-      <c r="AA11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF11" s="25"/>
-    </row>
-    <row r="12" spans="1:32" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="AA11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC11" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF11" s="23"/>
+    </row>
+    <row r="12" spans="1:32" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>6</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="12">
-        <v>10</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="12"/>
+      <c r="F12" s="19">
+        <v>2</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19"/>
       <c r="L12" s="3"/>
       <c r="M12" s="12">
         <v>10</v>
       </c>
-      <c r="N12" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="16"/>
+      <c r="N12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q12" s="22"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="16">
+      <c r="S12" s="22">
         <v>10</v>
       </c>
-      <c r="T12" s="28" t="s">
-        <v>41</v>
+      <c r="T12" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="V12" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="W12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="X12" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="V12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="X12" s="27"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="16">
+      <c r="Z12" s="22">
         <v>10</v>
       </c>
-      <c r="AA12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF12" s="25"/>
+      <c r="AA12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC12" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF12" s="23"/>
     </row>
     <row r="13" spans="1:32" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>7</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="8"/>
+        <v>154</v>
+      </c>
+      <c r="C13" s="16"/>
       <c r="D13" s="12"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="12">
-        <v>11</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="19">
+        <v>3</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="14">
+      <c r="I13" s="20"/>
+      <c r="J13" s="19">
         <v>0</v>
       </c>
-      <c r="K13" s="14"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="3"/>
       <c r="M13" s="12">
         <v>11</v>
       </c>
-      <c r="N13" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="21"/>
+      <c r="N13" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q13" s="15"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -2318,66 +2460,52 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="16">
+      <c r="Z13" s="22">
         <v>11</v>
       </c>
-      <c r="AA13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC13" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF13" s="25"/>
-    </row>
-    <row r="14" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC13" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF13" s="23"/>
+    </row>
+    <row r="14" spans="1:32" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>8</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>24</v>
+        <v>187</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="12">
-        <v>12</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="14"/>
       <c r="L14" s="3"/>
       <c r="M14" s="12">
         <v>12</v>
       </c>
-      <c r="N14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="22"/>
+      <c r="N14" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q14" s="25"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -2386,49 +2514,58 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
+      <c r="Z14" s="9">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB14" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC14" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE14" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF14" s="10"/>
     </row>
     <row r="15" spans="1:32" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="A15" s="47">
         <v>9</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="38"/>
+      <c r="B15" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="47"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="12">
-        <v>13</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="3"/>
       <c r="M15" s="12">
         <v>13</v>
       </c>
-      <c r="N15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="9"/>
+      <c r="N15" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q15" s="27"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -2437,43 +2574,54 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
+      <c r="Z15" s="22">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC15" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE15" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF15" s="10"/>
     </row>
     <row r="16" spans="1:32" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="40"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="19">
-        <v>14</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="14">
-        <v>0</v>
-      </c>
-      <c r="K16" s="14"/>
+      <c r="F16" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
       <c r="L16" s="3"/>
       <c r="M16" s="12">
         <v>14</v>
       </c>
-      <c r="N16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="11" t="s">
+      <c r="N16" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="Q16" s="9"/>
+      <c r="Q16" s="27"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -2482,47 +2630,64 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="7"/>
-    </row>
-    <row r="17" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="9">
+        <v>14</v>
+      </c>
+      <c r="AA16" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB16" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC16" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE16" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF16" s="10"/>
+    </row>
+    <row r="17" spans="1:32" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="16">
-        <v>15</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="14"/>
+      <c r="F17" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>66</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="12">
         <v>15</v>
       </c>
-      <c r="N17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="11" t="s">
+      <c r="N17" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="Q17" s="9"/>
+      <c r="Q17" s="27"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -2531,51 +2696,60 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="7"/>
-    </row>
-    <row r="18" spans="1:31" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z17" s="22">
+        <v>15</v>
+      </c>
+      <c r="AA17" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB17" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC17" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE17" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF17" s="10"/>
+    </row>
+    <row r="18" spans="1:32" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="16">
-        <v>16</v>
-      </c>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="22">
+        <v>1</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="14">
-        <v>0</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="K18" s="19"/>
       <c r="L18" s="3"/>
       <c r="M18" s="12">
         <v>16</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="Q18" s="9"/>
+      <c r="Q18" s="27"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -2584,39 +2758,47 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="7"/>
-    </row>
-    <row r="19" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z18" s="9">
+        <v>16</v>
+      </c>
+      <c r="AA18" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB18" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC18" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE18" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF18" s="10"/>
+    </row>
+    <row r="19" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="F19" s="39"/>
       <c r="L19" s="3"/>
       <c r="M19" s="12">
         <v>17</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="Q19" s="9"/>
+      <c r="Q19" s="27"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -2625,39 +2807,54 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="7"/>
-    </row>
-    <row r="20" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="9">
+        <v>17</v>
+      </c>
+      <c r="AA19" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC19" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE19" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF19" s="10"/>
+    </row>
+    <row r="20" spans="1:32" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="F20" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
       <c r="L20" s="3"/>
       <c r="M20" s="12">
         <v>18</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="P20" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="Q20" s="9"/>
+      <c r="Q20" s="27"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -2666,26 +2863,64 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-    </row>
-    <row r="21" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z20" s="22">
+        <v>18</v>
+      </c>
+      <c r="AA20" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB20" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC20" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE20" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF20" s="10"/>
+    </row>
+    <row r="21" spans="1:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="F21" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>66</v>
+      </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="3"/>
+      <c r="M21" s="35">
+        <v>19</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O21" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q21" s="22"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -2694,26 +2929,46 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-    </row>
-    <row r="22" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+    </row>
+    <row r="22" spans="1:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="F22" s="44">
+        <v>1</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>128</v>
+      </c>
       <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="3"/>
+      <c r="M22" s="35">
+        <v>20</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="22"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -2724,24 +2979,42 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="F23" s="44">
+        <v>2</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>129</v>
+      </c>
       <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="3"/>
+      <c r="M23" s="35">
+        <v>21</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="O23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q23" s="22"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -2752,24 +3025,42 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="F24" s="44">
+        <v>3</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="20"/>
+      <c r="J24" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>130</v>
+      </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="3"/>
+      <c r="M24" s="35">
+        <v>22</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q24" s="22"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -2780,24 +3071,42 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="F25" s="44">
+        <v>4</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>131</v>
+      </c>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="3"/>
+      <c r="M25" s="35">
+        <v>23</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q25" s="22"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
@@ -2808,24 +3117,42 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="F26" s="44">
+        <v>5</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>132</v>
+      </c>
       <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="3"/>
+      <c r="M26" s="35">
+        <v>24</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q26" s="22"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -2836,24 +3163,42 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="F27" s="44">
+        <v>6</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>133</v>
+      </c>
       <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="3"/>
+      <c r="M27" s="35">
+        <v>25</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P27" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q27" s="22"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -2864,18 +3209,28 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="5"/>
+      <c r="F28" s="44">
+        <v>7</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="20"/>
+      <c r="J28" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>134</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -2892,7 +3247,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2920,18 +3275,20 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="F30" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -2948,18 +3305,30 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="F31" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="36" t="s">
+        <v>66</v>
+      </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -2976,18 +3345,30 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="F32" s="19">
+        <v>1</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J32" s="19">
+        <v>0</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -3017,10 +3398,10 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="50"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="59"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -3045,10 +3426,10 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="50"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="59"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -30221,7 +30602,7 @@
       <c r="Z1004" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="25">
     <mergeCell ref="P33:P34"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
@@ -30234,6 +30615,10 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="N33:N34"/>
     <mergeCell ref="O33:O34"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F30:K30"/>
     <mergeCell ref="S1:X1"/>
     <mergeCell ref="Z1:AF1"/>
     <mergeCell ref="A3:A5"/>
